--- a/biology/Zoologie/Plecia_inflata_(Oustalet,_1870)/Plecia_inflata_(Oustalet,_1870).xlsx
+++ b/biology/Zoologie/Plecia_inflata_(Oustalet,_1870)/Plecia_inflata_(Oustalet,_1870).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Penthetria inflata, Protomyia inflata
 Plecia inflata est une espèce fossile de mouches (diptères) de la famille des Bibionidae.
@@ -514,19 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Description initiale
-En 1870 l'espèce Protomyia inflata est décrite par le zoologiste français Émile Oustalet (1844-1905)[1],[2]. 
-Renommage
-En 1937 le paléontologue français Nicolas Théobald renomme l'espèce Protomyia inflata en Plecia inflata en même temps qu'il décrit huit autres espèces de Plecia[3].
-En 1994 l'entomologiste américain Neal Luit Evenhuis (1952-) renomme l'espèce Protomyia inflata (ou Plecia inflata) en Penthetria inflata[4].
-En 2017 les entomologistes norvégien John Skartveit (1969-) et français André Nel (1959-) renomment Protomyia inflata (ou Penthetria inflata) en Plecia inflata, [note 1][5] ce qui est confirmé en 2021 par Skartveit et l'entomologiste allemande Sonja Wedmann[6],[2].
-Fossiles
-Selon Paleobiology Database en 2023, trois collections de fossiles sont référencées, toutes du Rupélien ou Oligocène inférieur, deux de France et une d'Allemagne. Ces collections viennent de :
-Brunstatt, Bas-Rhin en Alsace, décrite en 1891 par Bruno Förster sous le nom de Plecia cf lygeoides[7] ;
-Corent, département du Puy-de-Dôme en Auvergne, collection MNHNP, décrite en 1870 par Émile Oustalet[1] ;
-Kleinkembs en Bade-Wurtemberg en Allemagne, décrite en 1937 par Nicolas Théobald[3],[2].
-Étymologie
-L'épithète spécifique inflata signifie « boursouflé »[1].
+          <t>Description initiale</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1870 l'espèce Protomyia inflata est décrite par le zoologiste français Émile Oustalet (1844-1905),. 
 </t>
         </is>
       </c>
@@ -552,17 +558,172 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Renommage</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1937 le paléontologue français Nicolas Théobald renomme l'espèce Protomyia inflata en Plecia inflata en même temps qu'il décrit huit autres espèces de Plecia.
+En 1994 l'entomologiste américain Neal Luit Evenhuis (1952-) renomme l'espèce Protomyia inflata (ou Plecia inflata) en Penthetria inflata.
+En 2017 les entomologistes norvégien John Skartveit (1969-) et français André Nel (1959-) renomment Protomyia inflata (ou Penthetria inflata) en Plecia inflata, [note 1] ce qui est confirmé en 2021 par Skartveit et l'entomologiste allemande Sonja Wedmann,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Plecia_inflata_(Oustalet,_1870)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plecia_inflata_(Oustalet,_1870)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database en 2023, trois collections de fossiles sont référencées, toutes du Rupélien ou Oligocène inférieur, deux de France et une d'Allemagne. Ces collections viennent de :
+Brunstatt, Bas-Rhin en Alsace, décrite en 1891 par Bruno Förster sous le nom de Plecia cf lygeoides ;
+Corent, département du Puy-de-Dôme en Auvergne, collection MNHNP, décrite en 1870 par Émile Oustalet ;
+Kleinkembs en Bade-Wurtemberg en Allemagne, décrite en 1937 par Nicolas Théobald,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Plecia_inflata_(Oustalet,_1870)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plecia_inflata_(Oustalet,_1870)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique inflata signifie « boursouflé ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Plecia_inflata_(Oustalet,_1870)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plecia_inflata_(Oustalet,_1870)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caractères
-Diagnose de Nicolas Théobald en 1937[3],[note 2] : 
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diagnose de Nicolas Théobald en 1937,[note 2] : 
 « Ech. : R80, 601, 492, 592 + 882, 884. Coll. Mieg, Musée de Bâle, Kleinkembs.
-Cette espèce atteint une taille de 9,5 à 11,5 millimètres. Les ailes sont jaunes et dépassent longuement l'abdomen. Elle rappelle P. cf lugens, mais en diffère par l'abdomen de forme plus cylindrique. Nous rapprochons de cette espèce l'Insecte de Brunstatt, décrit par Förster sous le nom de P. cf. lygeoides Heer. En réalité l'échantillon de Brunstatt a des ailes plus longues et l'abdomen plus gros que P. inflata Oustalet de Corent. »[3].
-Dimensions
-Le longueur totale est de 9,5 à 11,5 millimètres[3].
+Cette espèce atteint une taille de 9,5 à 11,5 millimètres. Les ailes sont jaunes et dépassent longuement l'abdomen. Elle rappelle P. cf lugens, mais en diffère par l'abdomen de forme plus cylindrique. Nous rapprochons de cette espèce l'Insecte de Brunstatt, décrit par Förster sous le nom de P. cf. lygeoides Heer. En réalité l'échantillon de Brunstatt a des ailes plus longues et l'abdomen plus gros que P. inflata Oustalet de Corent. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Plecia_inflata_(Oustalet,_1870)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plecia_inflata_(Oustalet,_1870)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le longueur totale est de 9,5 à 11,5 millimètres.
 </t>
         </is>
       </c>
